--- a/skoring/utils/datasets/Result History.xlsx
+++ b/skoring/utils/datasets/Result History.xlsx
@@ -390,17 +390,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25.85546875" customWidth="1" min="1" max="1"/>
+    <col width="24.42578125" customWidth="1" min="1" max="1"/>
     <col width="25.140625" customWidth="1" min="2" max="2"/>
-    <col width="76.7109375" customWidth="1" min="3" max="3"/>
+    <col width="61.140625" customWidth="1" min="3" max="3"/>
     <col width="20.42578125" customWidth="1" min="4" max="4"/>
     <col width="53.7109375" customWidth="1" min="5" max="5"/>
     <col width="21.28515625" customWidth="1" min="6" max="6"/>
@@ -602,8 +602,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>Microsoft Security, Compliance, and Identity Fundamentals</t>
@@ -614,8 +612,6 @@
           <t>0.41301278095468785</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>microsoft 365</t>
@@ -634,12 +630,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>office</t>
@@ -656,6 +646,646 @@
       <c r="J7" t="n">
         <v>2286802</v>
       </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pelatihan microsoft 365</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>azure,microsoft 365,office</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BPK Penabur Series: PowerShell Administration</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.3474523756848368</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Fundamentals</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.9740553522229207</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>azure</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>43</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>azure</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>58984</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Building The Integrated Virtual Classroom with Teams and Moodle</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.3748262036910711</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.22034156494338966</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>microsoft 365</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>microsoft 365</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>33577</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Building Virtual Classroom with Teams</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.6365736740597923</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>2284093</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Creating An App Solution for Higher Ed Institution with Power Platforms</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.7082311065875776</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Creating and Managing a Document Academic using Office 365</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.3590070992011116</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Enabling Microsoft 365 Workloads for Collaboration</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26272055141994044</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FunFest - Microsoft 365—Get to know Microsoft 365 as a University Facility</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.6034080308500449</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Global Microsoft 365 Developer Bootcamp 2019</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26776639227643884</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Global Microsoft 365 Developer Bootcamp 2020</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.2564933145830506</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>How to Create a Multimedia Learning Object with Various Tools</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.3748262036910711</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inclusive Learning with Microsoft 365 </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23651354312606715</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Introduction to Microsoft 365</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.5851324366935264</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Managing Lecture Notes Digitally with OneNote</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.3371999958246887</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Admin Center and Azure DevOps</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49756394776087876</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Administration Workshop</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.7183431043388944</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Enterprise and Security Administration and EFO App</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.9929760104202436</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Identity with Azure Active Directory</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21541730269874618</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microsoft 365 Identity with Azure Active Directory </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21541730269874618</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Overview</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.5103790337486951</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Microsoft 365 for Improving Productivity</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.6365736740597923</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Office 365 Learning Utilization Training (Microsoft 365 Account Activation and Microsoft Educator Center Exploration)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.28014128030482593</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Optimizing Microsoft 365 for College Student</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35273685300602203</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PowerShell Workshop </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.207606437583086</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Project Collaboration using Teams and Planner</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.3748262036910711</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Research and Reference Data Management</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.330125069941719</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Save Classroom Time tools for planning, assignments</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.5890962384372053</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.3382433248462924</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tracking The Successful of Learning in Higher Ed with Power BI</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.3541155532937888</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Workshop Microsoft 365 - Word for Academic Research</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35273685300602203</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skoring/utils/datasets/Result History.xlsx
+++ b/skoring/utils/datasets/Result History.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -696,8 +696,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>Building The Integrated Virtual Classroom with Teams and Moodle</t>
@@ -736,8 +734,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>Building Virtual Classroom with Teams</t>
@@ -748,8 +744,6 @@
           <t>0.6365736740597923</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>office</t>
@@ -768,8 +762,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Creating An App Solution for Higher Ed Institution with Power Platforms</t>
@@ -780,16 +772,8 @@
           <t>0.7082311065875776</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>Creating and Managing a Document Academic using Office 365</t>
@@ -800,16 +784,8 @@
           <t>1.3590070992011116</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>Enabling Microsoft 365 Workloads for Collaboration</t>
@@ -820,16 +796,8 @@
           <t>0.26272055141994044</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>FunFest - Microsoft 365—Get to know Microsoft 365 as a University Facility</t>
@@ -840,16 +808,8 @@
           <t>0.6034080308500449</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>Global Microsoft 365 Developer Bootcamp 2019</t>
@@ -860,16 +820,8 @@
           <t>0.26776639227643884</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>Global Microsoft 365 Developer Bootcamp 2020</t>
@@ -880,16 +832,8 @@
           <t>0.2564933145830506</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>How to Create a Multimedia Learning Object with Various Tools</t>
@@ -900,16 +844,8 @@
           <t>0.3748262036910711</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">Inclusive Learning with Microsoft 365 </t>
@@ -920,16 +856,8 @@
           <t>0.23651354312606715</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>Introduction to Microsoft 365</t>
@@ -940,16 +868,8 @@
           <t>0.5851324366935264</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>Managing Lecture Notes Digitally with OneNote</t>
@@ -960,16 +880,8 @@
           <t>0.3371999958246887</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>Microsoft 365 Admin Center and Azure DevOps</t>
@@ -980,16 +892,8 @@
           <t>0.49756394776087876</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>Microsoft 365 Administration Workshop</t>
@@ -1000,16 +904,8 @@
           <t>1.7183431043388944</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>Microsoft 365 Enterprise and Security Administration and EFO App</t>
@@ -1020,16 +916,8 @@
           <t>0.9929760104202436</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>Microsoft 365 Identity with Azure Active Directory</t>
@@ -1040,16 +928,8 @@
           <t>0.21541730269874618</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">Microsoft 365 Identity with Azure Active Directory </t>
@@ -1060,16 +940,8 @@
           <t>0.21541730269874618</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>Microsoft 365 Overview</t>
@@ -1080,16 +952,8 @@
           <t>0.5103790337486951</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>Microsoft 365 for Improving Productivity</t>
@@ -1100,16 +964,8 @@
           <t>0.6365736740597923</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>Office 365 Learning Utilization Training (Microsoft 365 Account Activation and Microsoft Educator Center Exploration)</t>
@@ -1120,16 +976,8 @@
           <t>0.28014128030482593</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>Optimizing Microsoft 365 for College Student</t>
@@ -1140,16 +988,8 @@
           <t>0.35273685300602203</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">PowerShell Workshop </t>
@@ -1160,16 +1000,8 @@
           <t>0.207606437583086</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>Project Collaboration using Teams and Planner</t>
@@ -1180,16 +1012,8 @@
           <t>0.3748262036910711</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>Research and Reference Data Management</t>
@@ -1200,16 +1024,8 @@
           <t>0.330125069941719</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>Save Classroom Time tools for planning, assignments</t>
@@ -1220,16 +1036,8 @@
           <t>0.5890962384372053</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>Teacher Skill Improvement</t>
@@ -1240,16 +1048,8 @@
           <t>0.3382433248462924</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>Tracking The Successful of Learning in Higher Ed with Power BI</t>
@@ -1260,16 +1060,8 @@
           <t>0.3541155532937888</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>Workshop Microsoft 365 - Word for Academic Research</t>
@@ -1280,12 +1072,598 @@
           <t>0.35273685300602203</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>power BI</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>data analyst,business analyst</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Advanced Power BI</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.608004566787522</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.633071549589857</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>data analyst</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>98</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>data analyst</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>14027</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Data Visualization with Microsoft Power BI</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.8691866597611404</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI - Series 1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.660842091301512</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>business analyst</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>147</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>business analyst</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Fundamentals</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.5487337283521597</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI - Series 2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.414102362428948</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Power BI Advanced</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.3019120804914768</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform App Maker</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.7955862426861524</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Power BI Essentials</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.5452437265224108</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Functional Consultant</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.5173586175710994</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tracking The Successful of Learning in Higher Ed with Power BI</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.8293929887336926</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Fundamentals</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.6617981329674373</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Visualize Student Performance Data Using Power BI</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44404010896584</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>power BI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>data analyst,business analyst</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Advanced Power BI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.608004566787522</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.633071549589857</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>data analyst</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>98</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>data analyst</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>14030</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Data Visualization with Microsoft Power BI</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.8691866597611404</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI - Series 1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.660842091301512</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>business analyst</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>147</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>business analyst</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Fundamentals</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.5487337283521597</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI - Series 2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.414102362428948</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Power BI Advanced</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.3019120804914768</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform App Maker</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.7955862426861524</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Power BI Essentials</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.5452437265224108</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Functional Consultant</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.5173586175710994</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tracking The Successful of Learning in Higher Ed with Power BI</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.8293929887336926</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Fundamentals</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.6617981329674373</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Visualize Student Performance Data Using Power BI</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.44404010896584</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>power BI</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>data analyst,business analyst</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Advanced Power BI</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.608004566787522</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.633071549589857</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>data analyst</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>98</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>data analyst</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>14029</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Data Visualization with Microsoft Power BI</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.8691866597611404</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI - Series 1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.660842091301512</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>business analyst</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>147</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>business analyst</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Fundamentals</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.5487337283521597</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Analyzing Data with Power BI - Series 2</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.414102362428948</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Power BI Advanced</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.3019120804914768</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform App Maker</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.7955862426861524</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Power BI Essentials</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.5452437265224108</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Functional Consultant</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.5173586175710994</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tracking The Successful of Learning in Higher Ed with Power BI</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.8293929887336926</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Microsoft Power Platform Fundamentals</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.6617981329674373</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Visualize Student Performance Data Using Power BI</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.44404010896584</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skoring/utils/datasets/Result History.xlsx
+++ b/skoring/utils/datasets/Result History.xlsx
@@ -1,79 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\sistem-skoring-pelatihan-microsoft\skoring\utils\datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CFF843-EC39-49EF-89AE-DE5D1CD828D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Topics</t>
-  </si>
-  <si>
-    <t>Hasil Event</t>
-  </si>
-  <si>
-    <t>Skor Event</t>
-  </si>
-  <si>
-    <t>Hasil Katalog</t>
-  </si>
-  <si>
-    <t>Skor Katalog</t>
-  </si>
-  <si>
-    <t>Hasil Eventbrite</t>
-  </si>
-  <si>
-    <t>Skor Eventbrite</t>
-  </si>
-  <si>
-    <t>Topik Twitter</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Tweet Count</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -372,63 +385,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col width="24.42578125" customWidth="1" min="1" max="1"/>
+    <col width="25.140625" customWidth="1" min="2" max="2"/>
+    <col width="35.28515625" customWidth="1" min="3" max="3"/>
+    <col width="20.42578125" customWidth="1" min="4" max="4"/>
+    <col width="26.85546875" customWidth="1" min="5" max="5"/>
+    <col width="21.28515625" customWidth="1" min="6" max="6"/>
+    <col width="23.42578125" customWidth="1" min="7" max="7"/>
+    <col width="16.7109375" customWidth="1" min="8" max="9"/>
+    <col width="25" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="25.42578125" customWidth="1" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Query</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Topics</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Hasil Event</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Skor Event</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Hasil Katalog</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Skor Katalog</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Hasil Eventbrite</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Skor Eventbrite</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Topik Google Trend</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Hasil Google Trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pelatihan microsoft azure</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>google drive,google cloud platform,microsoft azure,chatgpt,gpt-4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6 Steps to Get Started Deploying Cloud Computing in Schools with Azure for Education</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.3121013001740982</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Microsoft Security, Compliance, and Identity Fundamentals</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.47722590822176536</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>google drive</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>google drive</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Microsoft Security, Compliance, and Identity Fundamentals</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.4134549694332694</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>google cloud platform</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>google cloud platform</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>microsoft azure</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>microsoft azure</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>chatgpt</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>chatgpt</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>gpt-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>99</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>gpt-4</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/skoring/utils/datasets/Result History.xlsx
+++ b/skoring/utils/datasets/Result History.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -512,8 +512,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Microsoft Security, Compliance, and Identity Fundamentals</t>
@@ -524,8 +522,6 @@
           <t>0.4134549694332694</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>google cloud platform</t>
@@ -544,12 +540,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>microsoft azure</t>
@@ -568,12 +558,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>chatgpt</t>
@@ -592,12 +576,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>gpt-4</t>
@@ -614,6 +592,5366 @@
       <c r="J6" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>25</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>25</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>25</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>25</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>25</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>25</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>25</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>25</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>25</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>10</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>25</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>10</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>25</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>2</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>10</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>25</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>10</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>microsoft office 365</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>office 365, word, excel</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Batch 1: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Elevate student voice across the curriculum</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>0.4899118656949658</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>25</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>office 365</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Batch 2: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Office 365 Administrator</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2.808111608459508</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>2</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> word</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr"/>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Batch 3: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Office 365 teacher academy</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>0.4967456049747521</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>10</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> excel</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr"/>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Batch 4: Unlimited Learning ToT with Microsoft Teams</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>0.2075510190460092</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Preparing students to be college and career ready with Office 365</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>0.3169525915462694</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Hack the Classroom 13: SMK Negeri 6 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Staying connected with remote learning through Microsoft Teams and Office 365</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>0.37152377174855844</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 10: Madrasayah Aliyah Negeri 1 Jember</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr"/>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 11: SMK Negeri 2 Surabaya</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr"/>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 13: SD Negeri Madyogondo 2 Magelang</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 14: SMA Negeri 1 Ungaran</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr"/>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 15: SMP Negeri Bangilan</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr"/>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 1: SMP Negeri 6 Ponorogo</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr"/>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 2: SDN Banyuwangi 1 Magelang</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 4: SMK Negeri 3 Jombang</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr"/>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 5: MAN 9 Jakarta</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr"/>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 6: SMP Negeri 2 Pangsid</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 7: SMP Negeri 12 Yogyakarta</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr"/>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 8: SMP Sepuluh November Sidoarjo</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr"/>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Batch 9: SMP Negeri 1 Sedayu Bantul</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr"/>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Hack the Classroom Hack 3: SMP Negeri 1 Sumbergempol Tulungagung</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>0.23483495091603285</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr"/>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Improving Productivity with Office 365</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>0.42372449639537313</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr"/>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Office 365 Deployment</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>0.20696017756260943</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr"/>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Teacher Skill Improvement</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>0.4076474460528859</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
